--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-986803.3243379431</v>
+        <v>-988784.2409183685</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553588</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14523237.70155986</v>
+        <v>14531686.90647361</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>293.3152421455231</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>58.6498870606332</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>107.8253751582501</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>236.7139500600956</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>404.8760817047059</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.7813801373067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>115.237314811077</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.43941339835948</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>63.79871444074308</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>131.9335216542442</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>34.10050473850168</v>
       </c>
       <c r="V10" t="n">
-        <v>142.630734290631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113171</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>264.7572541203022</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.4329213670798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>34.56420282848806</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>108.6200406500437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.6907158639456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>155.5554764474081</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467002</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>152.5798593298031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>122.6754339985952</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113186</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>88.65350124798448</v>
+        <v>149.0799667719505</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>21.85553884047039</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571504</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>218.0091385033459</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.753525949915</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1255.791009009504</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1255.791009009504</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
         <v>959.5129866402885</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2419.272113828029</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2088.209226484459</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>589.7975446981874</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>589.7975446981874</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>589.7975446981874</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>589.7975446981874</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>589.7975446981874</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>361.80799380017</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1027.360601710545</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>616.3746969209374</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.3443099123614</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="C7" t="n">
-        <v>170.3443099123614</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="D7" t="n">
-        <v>170.3443099123614</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426011</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426011</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.22335213854</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>1632.796259182273</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>863.5446557859152</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>445.5808476841021</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>118.3861277201049</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.457765669734</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.68911039962</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.22335213854</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1310.22335213854</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>466.3758425937211</v>
       </c>
       <c r="V10" t="n">
-        <v>369.7691122461817</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W10" t="n">
-        <v>369.7691122461817</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>369.7691122461817</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924194</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688046</v>
+        <v>259.7851881688055</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799338</v>
+        <v>507.4972331799348</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471164</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974664</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119725</v>
+        <v>1231.484700739414</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913838</v>
+        <v>1231.484700739414</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768776</v>
+        <v>1231.484700739414</v>
       </c>
       <c r="X13" t="n">
-        <v>615.7499579788603</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383756</v>
+        <v>1003.495149841397</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,7 +5303,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630136</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630136</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>132.1304276506778</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>789.0753054710162</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W16" t="n">
-        <v>499.6581354340556</v>
+        <v>731.029197104561</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340556</v>
+        <v>503.0396462065437</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>282.2470670630136</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2484.468242641993</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>797.6878684287844</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4575213834695</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550796</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>577.1966583249754</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1966583249754</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5993,46 +5993,46 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1943.227873734289</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>537.2200865194192</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>537.2200865194192</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>537.2200865194192</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>389.3069929370261</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609666</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>986.0022165609666</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>758.0126656629493</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y25" t="n">
-        <v>537.2200865194192</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6236,37 +6236,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331046</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331046</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V28" t="n">
-        <v>1409.367279398322</v>
+        <v>835.4163915387941</v>
       </c>
       <c r="W28" t="n">
-        <v>1119.950109361362</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X28" t="n">
-        <v>891.9605584633443</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633443</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,13 +6449,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,34 +6476,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089406</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.2917218531342</v>
+        <v>565.4200295030855</v>
       </c>
       <c r="C31" t="n">
-        <v>395.1164042065983</v>
+        <v>543.3437276440245</v>
       </c>
       <c r="D31" t="n">
-        <v>300.7606300756336</v>
+        <v>543.3437276440245</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756336</v>
+        <v>451.1914993430021</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590942</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918253</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323877</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>971.4397208808083</v>
+        <v>902.6804289818916</v>
       </c>
       <c r="X31" t="n">
-        <v>799.211035264162</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>634.1793214020029</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777667</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2037.143944996364</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7196,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>624.8682044203576</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1564.731711769081</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2174.134404651811</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7549,37 +7549,37 @@
         <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>286.0962224193113</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>940.8195545546108</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1805.338370207965</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2338.87027487989</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2885.649091938672</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3765.613742268127</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208808</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587483</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333965</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535629</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893005</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549807</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051436</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279358</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8451091596281</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609111</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>802.402861061814</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>444.4889386861657</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>15.83804904622849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>182.0340742867942</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>234.4116509503159</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.6230805871083</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>297.2466435761028</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714816</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.13752431970531</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504493</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>91.23759968302011</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>158.8724419039343</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,16 +11303,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>37.13651117804375</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>21.48009827827514</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.151731985015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>111.8697598180811</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>143.5176026737843</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.14126431799171</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>70.15417894162908</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.0576765518771</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>73.12979605923401</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>22.74561402433607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>163.4841420758435</v>
+        <v>103.0576765518775</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>90.1880256296005</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801189</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571469</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>13.3106032046878</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1269323.270764801</v>
+        <v>1269323.2707648</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1265973.161754641</v>
+        <v>1280604.450904759</v>
       </c>
     </row>
   </sheetData>
@@ -26326,10 +26326,10 @@
         <v>175963.0768819691</v>
       </c>
       <c r="G2" t="n">
+        <v>175963.0768819689</v>
+      </c>
+      <c r="H2" t="n">
         <v>175963.076881969</v>
-      </c>
-      <c r="H2" t="n">
-        <v>175963.0768819689</v>
       </c>
       <c r="I2" t="n">
         <v>175963.076881969</v>
@@ -26338,22 +26338,22 @@
         <v>175963.076881969</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053712</v>
+        <v>183069.9618053715</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="N2" t="n">
+        <v>184734.3982194641</v>
+      </c>
+      <c r="O2" t="n">
+        <v>184734.3982194641</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.398219464</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194639</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.398219464</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284585</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008667</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755743</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26430,34 +26430,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="H4" t="n">
-        <v>29303.54555230234</v>
-      </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649892</v>
+        <v>47468.16806649884</v>
       </c>
       <c r="L4" t="n">
+        <v>51722.33279362279</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51722.33279362279</v>
+      </c>
+      <c r="O4" t="n">
         <v>51722.3327936228</v>
       </c>
-      <c r="M4" t="n">
-        <v>51722.33279362276</v>
-      </c>
-      <c r="N4" t="n">
-        <v>51722.33279362277</v>
-      </c>
-      <c r="O4" t="n">
-        <v>51722.33279362283</v>
-      </c>
       <c r="P4" t="n">
-        <v>30134.53761950704</v>
+        <v>51722.3327936228</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-662583.3363803164</v>
       </c>
       <c r="C6" t="n">
-        <v>-72615.45716577195</v>
+        <v>-72615.45716577201</v>
       </c>
       <c r="D6" t="n">
         <v>-72615.45716577198</v>
       </c>
       <c r="E6" t="n">
-        <v>-470487.8310959461</v>
+        <v>-470585.2902219185</v>
       </c>
       <c r="F6" t="n">
-        <v>54672.20538095015</v>
+        <v>54574.74625497793</v>
       </c>
       <c r="G6" t="n">
-        <v>54672.20538095004</v>
+        <v>54574.74625497776</v>
       </c>
       <c r="H6" t="n">
-        <v>54672.20538094989</v>
+        <v>54574.74625497802</v>
       </c>
       <c r="I6" t="n">
-        <v>54672.20538095004</v>
+        <v>54574.7462549779</v>
       </c>
       <c r="J6" t="n">
-        <v>-121751.0138116429</v>
+        <v>-121848.4729376151</v>
       </c>
       <c r="K6" t="n">
-        <v>-5189.020094196341</v>
+        <v>-5207.51383213003</v>
       </c>
       <c r="L6" t="n">
-        <v>24954.05280494918</v>
+        <v>24954.05280494898</v>
       </c>
       <c r="M6" t="n">
-        <v>-99504.05562802141</v>
+        <v>-99504.05562802148</v>
       </c>
       <c r="N6" t="n">
-        <v>35296.95960581562</v>
+        <v>35296.95960581592</v>
       </c>
       <c r="O6" t="n">
-        <v>35296.95960581611</v>
+        <v>35296.95960581589</v>
       </c>
       <c r="P6" t="n">
-        <v>-146875.233618757</v>
+        <v>-8865.645697029759</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.607937505799687e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750921</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>88.61512792673869</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>192.5742804476561</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.3201637917688</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>49.80904827649545</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8.908088316089049</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.4565585187469</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>31.19664783549219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>145.7314754434357</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>88.13260180411817</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>195.8187368158907</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>252.181369503476</v>
       </c>
       <c r="V10" t="n">
-        <v>109.506909033197</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.56324392939135e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556378</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299079</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>777.6835120841787</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.5103663981263</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>166.4134876341677</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>389.1274892183189</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951473</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
@@ -36683,13 +36683,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>567.6062243483289</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36753,10 +36753,10 @@
         <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>350.1985191750476</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412283</v>
+        <v>67.71102679412247</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043206</v>
+        <v>94.4289566004317</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>504.3400585076275</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>182.1505571047795</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>340.4953046390446</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>365.9658568354589</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,13 +37944,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>435.8984973974156</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
